--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pdgfa-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.6550728063106</v>
+        <v>13.08425366666667</v>
       </c>
       <c r="H2">
-        <v>6.6550728063106</v>
+        <v>39.252761</v>
       </c>
       <c r="I2">
-        <v>0.2798254242202603</v>
+        <v>0.4321946987699228</v>
       </c>
       <c r="J2">
-        <v>0.2798254242202603</v>
+        <v>0.4321946987699228</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>270.403103085336</v>
+        <v>1.155747666666667</v>
       </c>
       <c r="N2">
-        <v>270.403103085336</v>
+        <v>3.467243</v>
       </c>
       <c r="O2">
-        <v>0.9992840278242119</v>
+        <v>0.004246591903937912</v>
       </c>
       <c r="P2">
-        <v>0.9992840278242119</v>
+        <v>0.004246591903937912</v>
       </c>
       <c r="Q2">
-        <v>1799.552338085222</v>
+        <v>15.12209564532478</v>
       </c>
       <c r="R2">
-        <v>1799.552338085222</v>
+        <v>136.098860807923</v>
       </c>
       <c r="S2">
-        <v>0.2796250770024405</v>
+        <v>0.001835354508721239</v>
       </c>
       <c r="T2">
-        <v>0.2796250770024405</v>
+        <v>0.001835354508721239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.6550728063106</v>
+        <v>13.08425366666667</v>
       </c>
       <c r="H3">
-        <v>6.6550728063106</v>
+        <v>39.252761</v>
       </c>
       <c r="I3">
-        <v>0.2798254242202603</v>
+        <v>0.4321946987699228</v>
       </c>
       <c r="J3">
-        <v>0.2798254242202603</v>
+        <v>0.4321946987699228</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.193739810369431</v>
+        <v>270.7963256666667</v>
       </c>
       <c r="N3">
-        <v>0.193739810369431</v>
+        <v>812.3889770000001</v>
       </c>
       <c r="O3">
-        <v>0.0007159721757881078</v>
+        <v>0.9949935590256014</v>
       </c>
       <c r="P3">
-        <v>0.0007159721757881078</v>
+        <v>0.9949935590256014</v>
       </c>
       <c r="Q3">
-        <v>1.289352543489373</v>
+        <v>3543.167817023945</v>
       </c>
       <c r="R3">
-        <v>1.289352543489373</v>
+        <v>31888.5103532155</v>
       </c>
       <c r="S3">
-        <v>0.00020034721781981</v>
+        <v>0.4300309415210832</v>
       </c>
       <c r="T3">
-        <v>0.00020034721781981</v>
+        <v>0.4300309415210832</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.699254380598012</v>
+        <v>13.08425366666667</v>
       </c>
       <c r="H4">
-        <v>0.699254380598012</v>
+        <v>39.252761</v>
       </c>
       <c r="I4">
-        <v>0.02940150459408542</v>
+        <v>0.4321946987699228</v>
       </c>
       <c r="J4">
-        <v>0.02940150459408542</v>
+        <v>0.4321946987699228</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>270.403103085336</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N4">
-        <v>270.403103085336</v>
+        <v>0.620399</v>
       </c>
       <c r="O4">
-        <v>0.9992840278242119</v>
+        <v>0.0007598490704606447</v>
       </c>
       <c r="P4">
-        <v>0.9992840278242119</v>
+        <v>0.0007598490704606446</v>
       </c>
       <c r="Q4">
-        <v>189.080554359717</v>
+        <v>2.705819296848778</v>
       </c>
       <c r="R4">
-        <v>189.080554359717</v>
+        <v>24.352373671639</v>
       </c>
       <c r="S4">
-        <v>0.02938045393486975</v>
+        <v>0.0003284027401183442</v>
       </c>
       <c r="T4">
-        <v>0.02938045393486975</v>
+        <v>0.0003284027401183442</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.699254380598012</v>
+        <v>0.7043496666666668</v>
       </c>
       <c r="H5">
-        <v>0.699254380598012</v>
+        <v>2.113049</v>
       </c>
       <c r="I5">
-        <v>0.02940150459408542</v>
+        <v>0.0232658430330821</v>
       </c>
       <c r="J5">
-        <v>0.02940150459408542</v>
+        <v>0.0232658430330821</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.193739810369431</v>
+        <v>1.155747666666667</v>
       </c>
       <c r="N5">
-        <v>0.193739810369431</v>
+        <v>3.467243</v>
       </c>
       <c r="O5">
-        <v>0.0007159721757881078</v>
+        <v>0.004246591903937912</v>
       </c>
       <c r="P5">
-        <v>0.0007159721757881078</v>
+        <v>0.004246591903937912</v>
       </c>
       <c r="Q5">
-        <v>0.1354734110970528</v>
+        <v>0.8140504837674445</v>
       </c>
       <c r="R5">
-        <v>0.1354734110970528</v>
+        <v>7.326454353907001</v>
       </c>
       <c r="S5">
-        <v>2.105065921567139E-05</v>
+        <v>9.880054066257672E-05</v>
       </c>
       <c r="T5">
-        <v>2.105065921567139E-05</v>
+        <v>9.880054066257672E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.428618286524</v>
+        <v>0.7043496666666668</v>
       </c>
       <c r="H6">
-        <v>16.428618286524</v>
+        <v>2.113049</v>
       </c>
       <c r="I6">
-        <v>0.6907730711856542</v>
+        <v>0.0232658430330821</v>
       </c>
       <c r="J6">
-        <v>0.6907730711856542</v>
+        <v>0.0232658430330821</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>270.403103085336</v>
+        <v>270.7963256666667</v>
       </c>
       <c r="N6">
-        <v>270.403103085336</v>
+        <v>812.3889770000001</v>
       </c>
       <c r="O6">
-        <v>0.9992840278242119</v>
+        <v>0.9949935590256014</v>
       </c>
       <c r="P6">
-        <v>0.9992840278242119</v>
+        <v>0.9949935590256014</v>
       </c>
       <c r="Q6">
-        <v>4442.349364080585</v>
+        <v>190.7353017178748</v>
       </c>
       <c r="R6">
-        <v>4442.349364080585</v>
+        <v>1716.617715460873</v>
       </c>
       <c r="S6">
-        <v>0.6902784968869016</v>
+        <v>0.02314936396321735</v>
       </c>
       <c r="T6">
-        <v>0.6902784968869016</v>
+        <v>0.02314936396321735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.428618286524</v>
+        <v>0.7043496666666668</v>
       </c>
       <c r="H7">
-        <v>16.428618286524</v>
+        <v>2.113049</v>
       </c>
       <c r="I7">
-        <v>0.6907730711856542</v>
+        <v>0.0232658430330821</v>
       </c>
       <c r="J7">
-        <v>0.6907730711856542</v>
+        <v>0.0232658430330821</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.193739810369431</v>
+        <v>0.2067996666666667</v>
       </c>
       <c r="N7">
-        <v>0.193739810369431</v>
+        <v>0.620399</v>
       </c>
       <c r="O7">
-        <v>0.0007159721757881078</v>
+        <v>0.0007598490704606447</v>
       </c>
       <c r="P7">
-        <v>0.0007159721757881078</v>
+        <v>0.0007598490704606446</v>
       </c>
       <c r="Q7">
-        <v>3.182877391462926</v>
+        <v>0.1456592762834445</v>
       </c>
       <c r="R7">
-        <v>3.182877391462926</v>
+        <v>1.310933486551</v>
       </c>
       <c r="S7">
-        <v>0.0004945742987526263</v>
+        <v>1.76785292021707E-05</v>
       </c>
       <c r="T7">
-        <v>0.0004945742987526263</v>
+        <v>1.76785292021707E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>16.48537666666667</v>
+      </c>
+      <c r="H8">
+        <v>49.45613</v>
+      </c>
+      <c r="I8">
+        <v>0.5445394581969951</v>
+      </c>
+      <c r="J8">
+        <v>0.5445394581969951</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.155747666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.467243</v>
+      </c>
+      <c r="O8">
+        <v>0.004246591903937912</v>
+      </c>
+      <c r="P8">
+        <v>0.004246591903937912</v>
+      </c>
+      <c r="Q8">
+        <v>19.05293561662111</v>
+      </c>
+      <c r="R8">
+        <v>171.47642054959</v>
+      </c>
+      <c r="S8">
+        <v>0.002312436854554097</v>
+      </c>
+      <c r="T8">
+        <v>0.002312436854554097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.48537666666667</v>
+      </c>
+      <c r="H9">
+        <v>49.45613</v>
+      </c>
+      <c r="I9">
+        <v>0.5445394581969951</v>
+      </c>
+      <c r="J9">
+        <v>0.5445394581969951</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>270.7963256666667</v>
+      </c>
+      <c r="N9">
+        <v>812.3889770000001</v>
+      </c>
+      <c r="O9">
+        <v>0.9949935590256014</v>
+      </c>
+      <c r="P9">
+        <v>0.9949935590256014</v>
+      </c>
+      <c r="Q9">
+        <v>4464.179428564335</v>
+      </c>
+      <c r="R9">
+        <v>40177.61485707902</v>
+      </c>
+      <c r="S9">
+        <v>0.5418132535413008</v>
+      </c>
+      <c r="T9">
+        <v>0.5418132535413008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.48537666666667</v>
+      </c>
+      <c r="H10">
+        <v>49.45613</v>
+      </c>
+      <c r="I10">
+        <v>0.5445394581969951</v>
+      </c>
+      <c r="J10">
+        <v>0.5445394581969951</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2067996666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.620399</v>
+      </c>
+      <c r="O10">
+        <v>0.0007598490704606447</v>
+      </c>
+      <c r="P10">
+        <v>0.0007598490704606446</v>
+      </c>
+      <c r="Q10">
+        <v>3.409170399541112</v>
+      </c>
+      <c r="R10">
+        <v>30.68253359587</v>
+      </c>
+      <c r="S10">
+        <v>0.0004137678011401299</v>
+      </c>
+      <c r="T10">
+        <v>0.0004137678011401298</v>
       </c>
     </row>
   </sheetData>
